--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.26780315912526</v>
+        <v>1.376083</v>
       </c>
       <c r="H2">
-        <v>1.26780315912526</v>
+        <v>2.752166</v>
       </c>
       <c r="I2">
-        <v>0.187680351324356</v>
+        <v>0.1951451957186365</v>
       </c>
       <c r="J2">
-        <v>0.187680351324356</v>
+        <v>0.1551808209878423</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N2">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O2">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P2">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q2">
-        <v>17.58059682471836</v>
+        <v>19.182452531285</v>
       </c>
       <c r="R2">
-        <v>17.58059682471836</v>
+        <v>76.72981012513999</v>
       </c>
       <c r="S2">
-        <v>0.09188434802175285</v>
+        <v>0.09372607820328145</v>
       </c>
       <c r="T2">
-        <v>0.09188434802175285</v>
+        <v>0.06349245208531774</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.26780315912526</v>
+        <v>1.376083</v>
       </c>
       <c r="H3">
-        <v>1.26780315912526</v>
+        <v>2.752166</v>
       </c>
       <c r="I3">
-        <v>0.187680351324356</v>
+        <v>0.1951451957186365</v>
       </c>
       <c r="J3">
-        <v>0.187680351324356</v>
+        <v>0.1551808209878423</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N3">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O3">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P3">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q3">
-        <v>0.4164598937064709</v>
+        <v>0.7048797102823334</v>
       </c>
       <c r="R3">
-        <v>0.4164598937064709</v>
+        <v>4.229278261694</v>
       </c>
       <c r="S3">
-        <v>0.002176612443362861</v>
+        <v>0.003444064868247728</v>
       </c>
       <c r="T3">
-        <v>0.002176612443362861</v>
+        <v>0.003499646968344329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.26780315912526</v>
+        <v>1.376083</v>
       </c>
       <c r="H4">
-        <v>1.26780315912526</v>
+        <v>2.752166</v>
       </c>
       <c r="I4">
-        <v>0.187680351324356</v>
+        <v>0.1951451957186365</v>
       </c>
       <c r="J4">
-        <v>0.187680351324356</v>
+        <v>0.1551808209878423</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N4">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O4">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P4">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q4">
-        <v>0.171487985540095</v>
+        <v>0.2342928089686667</v>
       </c>
       <c r="R4">
-        <v>0.171487985540095</v>
+        <v>1.405756853812</v>
       </c>
       <c r="S4">
-        <v>0.0008962757011048083</v>
+        <v>0.001144762177831529</v>
       </c>
       <c r="T4">
-        <v>0.0008962757011048083</v>
+        <v>0.001163236941922546</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.26780315912526</v>
+        <v>1.376083</v>
       </c>
       <c r="H5">
-        <v>1.26780315912526</v>
+        <v>2.752166</v>
       </c>
       <c r="I5">
-        <v>0.187680351324356</v>
+        <v>0.1951451957186365</v>
       </c>
       <c r="J5">
-        <v>0.187680351324356</v>
+        <v>0.1551808209878423</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N5">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O5">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P5">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q5">
-        <v>0.2151115844439371</v>
+        <v>0.2671788991969999</v>
       </c>
       <c r="R5">
-        <v>0.2151115844439371</v>
+        <v>1.603073395182</v>
       </c>
       <c r="S5">
-        <v>0.001124272849529614</v>
+        <v>0.001305444669265509</v>
       </c>
       <c r="T5">
-        <v>0.001124272849529614</v>
+        <v>0.001326512610507454</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.26780315912526</v>
+        <v>1.376083</v>
       </c>
       <c r="H6">
-        <v>1.26780315912526</v>
+        <v>2.752166</v>
       </c>
       <c r="I6">
-        <v>0.187680351324356</v>
+        <v>0.1951451957186365</v>
       </c>
       <c r="J6">
-        <v>0.187680351324356</v>
+        <v>0.1551808209878423</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N6">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O6">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P6">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q6">
-        <v>11.33895491934568</v>
+        <v>12.68185708053</v>
       </c>
       <c r="R6">
-        <v>11.33895491934568</v>
+        <v>76.09114248318001</v>
       </c>
       <c r="S6">
-        <v>0.0592626342779928</v>
+        <v>0.06196396037232731</v>
       </c>
       <c r="T6">
-        <v>0.0592626342779928</v>
+        <v>0.06296396681226087</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.26780315912526</v>
+        <v>1.376083</v>
       </c>
       <c r="H7">
-        <v>1.26780315912526</v>
+        <v>2.752166</v>
       </c>
       <c r="I7">
-        <v>0.187680351324356</v>
+        <v>0.1951451957186365</v>
       </c>
       <c r="J7">
-        <v>0.187680351324356</v>
+        <v>0.1551808209878423</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N7">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O7">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P7">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q7">
-        <v>6.187014964636226</v>
+        <v>6.868740311828</v>
       </c>
       <c r="R7">
-        <v>6.187014964636226</v>
+        <v>27.474961247312</v>
       </c>
       <c r="S7">
-        <v>0.03233620803061306</v>
+        <v>0.03356088542768296</v>
       </c>
       <c r="T7">
-        <v>0.03233620803061306</v>
+        <v>0.02273500556948936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.8825968866792</v>
+        <v>2.943814666666667</v>
       </c>
       <c r="H8">
-        <v>2.8825968866792</v>
+        <v>8.831444000000001</v>
       </c>
       <c r="I8">
-        <v>0.4267277554283134</v>
+        <v>0.4174684879371807</v>
       </c>
       <c r="J8">
-        <v>0.4267277554283134</v>
+        <v>0.4979607808642916</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N8">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O8">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P8">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q8">
-        <v>39.97290376517223</v>
+        <v>41.03646735279334</v>
       </c>
       <c r="R8">
-        <v>39.97290376517223</v>
+        <v>246.21880411676</v>
       </c>
       <c r="S8">
-        <v>0.2089169234479593</v>
+        <v>0.200505495427214</v>
       </c>
       <c r="T8">
-        <v>0.2089169234479593</v>
+        <v>0.2037413568128401</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.8825968866792</v>
+        <v>2.943814666666667</v>
       </c>
       <c r="H9">
-        <v>2.8825968866792</v>
+        <v>8.831444000000001</v>
       </c>
       <c r="I9">
-        <v>0.4267277554283134</v>
+        <v>0.4174684879371807</v>
       </c>
       <c r="J9">
-        <v>0.4267277554283134</v>
+        <v>0.4979607808642916</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N9">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O9">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P9">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q9">
-        <v>0.9469025095767367</v>
+        <v>1.507928830866223</v>
       </c>
       <c r="R9">
-        <v>0.9469025095767367</v>
+        <v>13.571359477796</v>
       </c>
       <c r="S9">
-        <v>0.004948951426398114</v>
+        <v>0.007367788623287303</v>
       </c>
       <c r="T9">
-        <v>0.004948951426398114</v>
+        <v>0.01123004071000903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.8825968866792</v>
+        <v>2.943814666666667</v>
       </c>
       <c r="H10">
-        <v>2.8825968866792</v>
+        <v>8.831444000000001</v>
       </c>
       <c r="I10">
-        <v>0.4267277554283134</v>
+        <v>0.4174684879371807</v>
       </c>
       <c r="J10">
-        <v>0.4267277554283134</v>
+        <v>0.4979607808642916</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N10">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O10">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P10">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q10">
-        <v>0.3899112647438396</v>
+        <v>0.5012158476897779</v>
       </c>
       <c r="R10">
-        <v>0.3899112647438396</v>
+        <v>4.510942629208001</v>
       </c>
       <c r="S10">
-        <v>0.00203785700249677</v>
+        <v>0.002448956704607011</v>
       </c>
       <c r="T10">
-        <v>0.00203785700249677</v>
+        <v>0.003732718851740854</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.8825968866792</v>
+        <v>2.943814666666667</v>
       </c>
       <c r="H11">
-        <v>2.8825968866792</v>
+        <v>8.831444000000001</v>
       </c>
       <c r="I11">
-        <v>0.4267277554283134</v>
+        <v>0.4174684879371807</v>
       </c>
       <c r="J11">
-        <v>0.4267277554283134</v>
+        <v>0.4979607808642916</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N11">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O11">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P11">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q11">
-        <v>0.4890979953343518</v>
+        <v>0.5715681118653333</v>
       </c>
       <c r="R11">
-        <v>0.4890979953343518</v>
+        <v>5.144113006788</v>
       </c>
       <c r="S11">
-        <v>0.002556252831920749</v>
+        <v>0.002792700123397805</v>
       </c>
       <c r="T11">
-        <v>0.002556252831920749</v>
+        <v>0.004256655243539233</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.8825968866792</v>
+        <v>2.943814666666667</v>
       </c>
       <c r="H12">
-        <v>2.8825968866792</v>
+        <v>8.831444000000001</v>
       </c>
       <c r="I12">
-        <v>0.4267277554283134</v>
+        <v>0.4174684879371807</v>
       </c>
       <c r="J12">
-        <v>0.4267277554283134</v>
+        <v>0.4979607808642916</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N12">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O12">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P12">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q12">
-        <v>25.78131779641062</v>
+        <v>27.12993102468</v>
       </c>
       <c r="R12">
-        <v>25.78131779641062</v>
+        <v>244.1693792221201</v>
       </c>
       <c r="S12">
-        <v>0.1347451170448392</v>
+        <v>0.132557712978657</v>
       </c>
       <c r="T12">
-        <v>0.1347451170448392</v>
+        <v>0.2020454968633216</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.8825968866792</v>
+        <v>2.943814666666667</v>
       </c>
       <c r="H13">
-        <v>2.8825968866792</v>
+        <v>8.831444000000001</v>
       </c>
       <c r="I13">
-        <v>0.4267277554283134</v>
+        <v>0.4174684879371807</v>
       </c>
       <c r="J13">
-        <v>0.4267277554283134</v>
+        <v>0.4979607808642916</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N13">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O13">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P13">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q13">
-        <v>14.06738100195563</v>
+        <v>14.69409800970133</v>
       </c>
       <c r="R13">
-        <v>14.06738100195563</v>
+        <v>88.16458805820801</v>
       </c>
       <c r="S13">
-        <v>0.07352265367469926</v>
+        <v>0.07179583408001751</v>
       </c>
       <c r="T13">
-        <v>0.07352265367469926</v>
+        <v>0.0729545123828408</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.674387428065048</v>
+        <v>0.01028933333333333</v>
       </c>
       <c r="H14">
-        <v>0.674387428065048</v>
+        <v>0.030868</v>
       </c>
       <c r="I14">
-        <v>0.09983353371299805</v>
+        <v>0.001459151786009727</v>
       </c>
       <c r="J14">
-        <v>0.09983353371299805</v>
+        <v>0.00174049151913537</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N14">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O14">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P14">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q14">
-        <v>9.351714728846929</v>
+        <v>0.1434322262866667</v>
       </c>
       <c r="R14">
-        <v>9.351714728846929</v>
+        <v>0.86059335772</v>
       </c>
       <c r="S14">
-        <v>0.04887639591036974</v>
+        <v>0.0007008144571654693</v>
       </c>
       <c r="T14">
-        <v>0.04887639591036974</v>
+        <v>0.0007121245633328761</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.674387428065048</v>
+        <v>0.01028933333333333</v>
       </c>
       <c r="H15">
-        <v>0.674387428065048</v>
+        <v>0.030868</v>
       </c>
       <c r="I15">
-        <v>0.09983353371299805</v>
+        <v>0.001459151786009727</v>
       </c>
       <c r="J15">
-        <v>0.09983353371299805</v>
+        <v>0.00174049151913537</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N15">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O15">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P15">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q15">
-        <v>0.2215291187653536</v>
+        <v>0.005270570379111112</v>
       </c>
       <c r="R15">
-        <v>0.2215291187653536</v>
+        <v>0.047435133412</v>
       </c>
       <c r="S15">
-        <v>0.001157813858569848</v>
+        <v>2.575217588693677E-05</v>
       </c>
       <c r="T15">
-        <v>0.001157813858569848</v>
+        <v>3.925166673044168E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.674387428065048</v>
+        <v>0.01028933333333333</v>
       </c>
       <c r="H16">
-        <v>0.674387428065048</v>
+        <v>0.030868</v>
       </c>
       <c r="I16">
-        <v>0.09983353371299805</v>
+        <v>0.001459151786009727</v>
       </c>
       <c r="J16">
-        <v>0.09983353371299805</v>
+        <v>0.00174049151913537</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N16">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O16">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P16">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q16">
-        <v>0.09122026607997633</v>
+        <v>0.001751868752888889</v>
       </c>
       <c r="R16">
-        <v>0.09122026607997633</v>
+        <v>0.015766818776</v>
       </c>
       <c r="S16">
-        <v>0.0004767593932502187</v>
+        <v>8.559686904860543E-06</v>
       </c>
       <c r="T16">
-        <v>0.0004767593932502187</v>
+        <v>1.304674133873652E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.674387428065048</v>
+        <v>0.01028933333333333</v>
       </c>
       <c r="H17">
-        <v>0.674387428065048</v>
+        <v>0.030868</v>
       </c>
       <c r="I17">
-        <v>0.09983353371299805</v>
+        <v>0.001459151786009727</v>
       </c>
       <c r="J17">
-        <v>0.09983353371299805</v>
+        <v>0.00174049151913537</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N17">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O17">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P17">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q17">
-        <v>0.1144251354289386</v>
+        <v>0.001997766670666666</v>
       </c>
       <c r="R17">
-        <v>0.1144251354289386</v>
+        <v>0.017979900036</v>
       </c>
       <c r="S17">
-        <v>0.0005980387964648769</v>
+        <v>9.761152016481499E-06</v>
       </c>
       <c r="T17">
-        <v>0.0005980387964648769</v>
+        <v>1.487802380421243E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.674387428065048</v>
+        <v>0.01028933333333333</v>
       </c>
       <c r="H18">
-        <v>0.674387428065048</v>
+        <v>0.030868</v>
       </c>
       <c r="I18">
-        <v>0.09983353371299805</v>
+        <v>0.001459151786009727</v>
       </c>
       <c r="J18">
-        <v>0.09983353371299805</v>
+        <v>0.00174049151913537</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N18">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O18">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P18">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q18">
-        <v>6.031574057820709</v>
+        <v>0.09482556996000001</v>
       </c>
       <c r="R18">
-        <v>6.031574057820709</v>
+        <v>0.8534301296400001</v>
       </c>
       <c r="S18">
-        <v>0.03152380180111734</v>
+        <v>0.0004633207756540363</v>
       </c>
       <c r="T18">
-        <v>0.03152380180111734</v>
+        <v>0.0007061971289380322</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.674387428065048</v>
+        <v>0.01028933333333333</v>
       </c>
       <c r="H19">
-        <v>0.674387428065048</v>
+        <v>0.030868</v>
       </c>
       <c r="I19">
-        <v>0.09983353371299805</v>
+        <v>0.001459151786009727</v>
       </c>
       <c r="J19">
-        <v>0.09983353371299805</v>
+        <v>0.00174049151913537</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N19">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O19">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P19">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q19">
-        <v>3.291082751584111</v>
+        <v>0.05135937196266666</v>
       </c>
       <c r="R19">
-        <v>3.291082751584111</v>
+        <v>0.308156231776</v>
       </c>
       <c r="S19">
-        <v>0.01720072395322603</v>
+        <v>0.000250943538381943</v>
       </c>
       <c r="T19">
-        <v>0.01720072395322603</v>
+        <v>0.0002549933949910717</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.93033180302377</v>
+        <v>0.6779453333333333</v>
       </c>
       <c r="H20">
-        <v>1.93033180302377</v>
+        <v>2.033836</v>
       </c>
       <c r="I20">
-        <v>0.2857583595343326</v>
+        <v>0.09614083944054944</v>
       </c>
       <c r="J20">
-        <v>0.2857583595343326</v>
+        <v>0.1146777993168396</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N20">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O20">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P20">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q20">
-        <v>26.76786607024033</v>
+        <v>9.450486762406666</v>
       </c>
       <c r="R20">
-        <v>26.76786607024033</v>
+        <v>56.70292057444</v>
       </c>
       <c r="S20">
-        <v>0.1399012756119578</v>
+        <v>0.04617538137565082</v>
       </c>
       <c r="T20">
-        <v>0.1399012756119578</v>
+        <v>0.0469205835619633</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.93033180302377</v>
+        <v>0.6779453333333333</v>
       </c>
       <c r="H21">
-        <v>1.93033180302377</v>
+        <v>2.033836</v>
       </c>
       <c r="I21">
-        <v>0.2857583595343326</v>
+        <v>0.09614083944054944</v>
       </c>
       <c r="J21">
-        <v>0.2857583595343326</v>
+        <v>0.1146777993168396</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N21">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O21">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P21">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q21">
-        <v>0.6340935276262969</v>
+        <v>0.3472682317471111</v>
       </c>
       <c r="R21">
-        <v>0.6340935276262969</v>
+        <v>3.125414085724</v>
       </c>
       <c r="S21">
-        <v>0.003314066692482098</v>
+        <v>0.001696763716378902</v>
       </c>
       <c r="T21">
-        <v>0.003314066692482098</v>
+        <v>0.002586220450187074</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.93033180302377</v>
+        <v>0.6779453333333333</v>
       </c>
       <c r="H22">
-        <v>1.93033180302377</v>
+        <v>2.033836</v>
       </c>
       <c r="I22">
-        <v>0.2857583595343326</v>
+        <v>0.09614083944054944</v>
       </c>
       <c r="J22">
-        <v>0.2857583595343326</v>
+        <v>0.1146777993168396</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N22">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O22">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P22">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q22">
-        <v>0.2611041863572291</v>
+        <v>0.1154274244168889</v>
       </c>
       <c r="R22">
-        <v>0.2611041863572291</v>
+        <v>1.038846819752</v>
       </c>
       <c r="S22">
-        <v>0.001364651505769834</v>
+        <v>0.0005639820971826469</v>
       </c>
       <c r="T22">
-        <v>0.001364651505769834</v>
+        <v>0.000859625897933476</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.93033180302377</v>
+        <v>0.6779453333333333</v>
       </c>
       <c r="H23">
-        <v>1.93033180302377</v>
+        <v>2.033836</v>
       </c>
       <c r="I23">
-        <v>0.2857583595343326</v>
+        <v>0.09614083944054944</v>
       </c>
       <c r="J23">
-        <v>0.2857583595343326</v>
+        <v>0.1146777993168396</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N23">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O23">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P23">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q23">
-        <v>0.3275246079505464</v>
+        <v>0.1316291879746666</v>
       </c>
       <c r="R23">
-        <v>0.3275246079505464</v>
+        <v>1.184662691772</v>
       </c>
       <c r="S23">
-        <v>0.001711795416427695</v>
+        <v>0.0006431444334777978</v>
       </c>
       <c r="T23">
-        <v>0.001711795416427695</v>
+        <v>0.0009802857464644352</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.93033180302377</v>
+        <v>0.6779453333333333</v>
       </c>
       <c r="H24">
-        <v>1.93033180302377</v>
+        <v>2.033836</v>
       </c>
       <c r="I24">
-        <v>0.2857583595343326</v>
+        <v>0.09614083944054944</v>
       </c>
       <c r="J24">
-        <v>0.2857583595343326</v>
+        <v>0.1146777993168396</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N24">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O24">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P24">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q24">
-        <v>17.26446659824362</v>
+        <v>6.24788317692</v>
       </c>
       <c r="R24">
-        <v>17.26446659824362</v>
+        <v>56.23094859228001</v>
       </c>
       <c r="S24">
-        <v>0.09023210492447876</v>
+        <v>0.03052735755711748</v>
       </c>
       <c r="T24">
-        <v>0.09023210492447876</v>
+        <v>0.0465300357629523</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.6779453333333333</v>
+      </c>
+      <c r="H25">
+        <v>2.033836</v>
+      </c>
+      <c r="I25">
+        <v>0.09614083944054944</v>
+      </c>
+      <c r="J25">
+        <v>0.1146777993168396</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.991516</v>
+      </c>
+      <c r="N25">
+        <v>9.983032</v>
+      </c>
+      <c r="O25">
+        <v>0.1719790502865958</v>
+      </c>
+      <c r="P25">
+        <v>0.1465065426562639</v>
+      </c>
+      <c r="Q25">
+        <v>3.383974978458666</v>
+      </c>
+      <c r="R25">
+        <v>20.303849870752</v>
+      </c>
+      <c r="S25">
+        <v>0.01653421026074178</v>
+      </c>
+      <c r="T25">
+        <v>0.01680104789733903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.043453</v>
+      </c>
+      <c r="H26">
+        <v>4.086906</v>
+      </c>
+      <c r="I26">
+        <v>0.2897863251176236</v>
+      </c>
+      <c r="J26">
+        <v>0.2304401073118913</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.939895</v>
+      </c>
+      <c r="N26">
+        <v>27.87979</v>
+      </c>
+      <c r="O26">
+        <v>0.4802889349037177</v>
+      </c>
+      <c r="P26">
+        <v>0.4091514124048364</v>
+      </c>
+      <c r="Q26">
+        <v>28.485520257435</v>
+      </c>
+      <c r="R26">
+        <v>113.94208102974</v>
+      </c>
+      <c r="S26">
+        <v>0.1391811654404059</v>
+      </c>
+      <c r="T26">
+        <v>0.09428489538138238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.043453</v>
+      </c>
+      <c r="H27">
+        <v>4.086906</v>
+      </c>
+      <c r="I27">
+        <v>0.2897863251176236</v>
+      </c>
+      <c r="J27">
+        <v>0.2304401073118913</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.5122363333333334</v>
+      </c>
+      <c r="N27">
+        <v>1.536709</v>
+      </c>
+      <c r="O27">
+        <v>0.01764872999083942</v>
+      </c>
+      <c r="P27">
+        <v>0.02255205859890708</v>
+      </c>
+      <c r="Q27">
+        <v>1.046730872059</v>
+      </c>
+      <c r="R27">
+        <v>6.280385232354</v>
+      </c>
+      <c r="S27">
+        <v>0.005114360607038546</v>
+      </c>
+      <c r="T27">
+        <v>0.005196898803636209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.043453</v>
+      </c>
+      <c r="H28">
+        <v>4.086906</v>
+      </c>
+      <c r="I28">
+        <v>0.2897863251176236</v>
+      </c>
+      <c r="J28">
+        <v>0.2304401073118913</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.1702606666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.5107820000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.005866207331499287</v>
+      </c>
+      <c r="P28">
+        <v>0.007496009716391951</v>
+      </c>
+      <c r="Q28">
+        <v>0.3479196700820001</v>
+      </c>
+      <c r="R28">
+        <v>2.087518020492</v>
+      </c>
+      <c r="S28">
+        <v>0.00169994666497324</v>
+      </c>
+      <c r="T28">
+        <v>0.001727381283456341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.043453</v>
+      </c>
+      <c r="H29">
+        <v>4.086906</v>
+      </c>
+      <c r="I29">
+        <v>0.2897863251176236</v>
+      </c>
+      <c r="J29">
+        <v>0.2304401073118913</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.194159</v>
+      </c>
+      <c r="N29">
+        <v>0.5824769999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.006689607010093757</v>
+      </c>
+      <c r="P29">
+        <v>0.008548173685789306</v>
+      </c>
+      <c r="Q29">
+        <v>0.396754791027</v>
+      </c>
+      <c r="R29">
+        <v>2.380528746162</v>
+      </c>
+      <c r="S29">
+        <v>0.001938556631936164</v>
+      </c>
+      <c r="T29">
+        <v>0.001969842061473973</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.93033180302377</v>
-      </c>
-      <c r="H25">
-        <v>1.93033180302377</v>
-      </c>
-      <c r="I25">
-        <v>0.2857583595343326</v>
-      </c>
-      <c r="J25">
-        <v>0.2857583595343326</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.88010691573371</v>
-      </c>
-      <c r="N25">
-        <v>4.88010691573371</v>
-      </c>
-      <c r="O25">
-        <v>0.1722940510417547</v>
-      </c>
-      <c r="P25">
-        <v>0.1722940510417547</v>
-      </c>
-      <c r="Q25">
-        <v>9.420225581597022</v>
-      </c>
-      <c r="R25">
-        <v>9.420225581597022</v>
-      </c>
-      <c r="S25">
-        <v>0.0492344653832164</v>
-      </c>
-      <c r="T25">
-        <v>0.0492344653832164</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.043453</v>
+      </c>
+      <c r="H30">
+        <v>4.086906</v>
+      </c>
+      <c r="I30">
+        <v>0.2897863251176236</v>
+      </c>
+      <c r="J30">
+        <v>0.2304401073118913</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9.215910000000001</v>
+      </c>
+      <c r="N30">
+        <v>27.64773</v>
+      </c>
+      <c r="O30">
+        <v>0.317527470477254</v>
+      </c>
+      <c r="P30">
+        <v>0.4057458029378115</v>
+      </c>
+      <c r="Q30">
+        <v>18.83227893723</v>
+      </c>
+      <c r="R30">
+        <v>112.99367362338</v>
+      </c>
+      <c r="S30">
+        <v>0.09201511879349819</v>
+      </c>
+      <c r="T30">
+        <v>0.09350010637033877</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.043453</v>
+      </c>
+      <c r="H31">
+        <v>4.086906</v>
+      </c>
+      <c r="I31">
+        <v>0.2897863251176236</v>
+      </c>
+      <c r="J31">
+        <v>0.2304401073118913</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.991516</v>
+      </c>
+      <c r="N31">
+        <v>9.983032</v>
+      </c>
+      <c r="O31">
+        <v>0.1719790502865958</v>
+      </c>
+      <c r="P31">
+        <v>0.1465065426562639</v>
+      </c>
+      <c r="Q31">
+        <v>10.199928344748</v>
+      </c>
+      <c r="R31">
+        <v>40.799713378992</v>
+      </c>
+      <c r="S31">
+        <v>0.04983717697977159</v>
+      </c>
+      <c r="T31">
+        <v>0.03376098341160362</v>
       </c>
     </row>
   </sheetData>
